--- a/With Information/ParallelHomogeneousWithInfomationProvider.xlsx
+++ b/With Information/ParallelHomogeneousWithInfomationProvider.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
   <si>
     <t>M</t>
   </si>
@@ -69,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -78,13 +150,17 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,10 +177,10 @@
     <col min="2" max="2" width="2.28515625" customWidth="true"/>
     <col min="3" max="3" width="4.140625" customWidth="true"/>
     <col min="4" max="4" width="3.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="14.7109375" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
     <col min="9" max="9" width="4.42578125" customWidth="true"/>
     <col min="10" max="10" width="6.5703125" customWidth="true"/>
     <col min="11" max="11" width="6.5703125" customWidth="true"/>
@@ -113,40 +189,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -163,13 +239,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>0.22435760679299588</v>
+        <v>0.70969875152257245</v>
       </c>
       <c r="F2" s="0">
         <v>1</v>
       </c>
       <c r="G2" s="0">
-        <v>0.3687888268417715</v>
+        <v>0.51543511572225842</v>
       </c>
       <c r="H2" s="0">
         <v>0.75</v>
@@ -199,13 +275,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.22254543541193339</v>
+        <v>0.71923207179474824</v>
       </c>
       <c r="F3" s="0">
         <v>1</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>0.48026529525957545</v>
       </c>
       <c r="H3" s="0">
         <v>0.75</v>
@@ -218,7 +294,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -235,13 +311,13 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>0.19949386300719107</v>
+        <v>0.73093785823913981</v>
       </c>
       <c r="F4" s="0">
         <v>1</v>
       </c>
       <c r="G4" s="0">
-        <v>0</v>
+        <v>0.45619525197236654</v>
       </c>
       <c r="H4" s="0">
         <v>0.75</v>
@@ -254,7 +330,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -271,13 +347,13 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="E5" s="0">
-        <v>0.056780176875641339</v>
+        <v>0.7290342611473456</v>
       </c>
       <c r="F5" s="0">
         <v>1</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.43518684875791408</v>
       </c>
       <c r="H5" s="0">
         <v>0.75</v>
@@ -290,7 +366,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -307,13 +383,13 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="E6" s="0">
-        <v>0.17911223919630054</v>
+        <v>0.73841563919408038</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.4205835034442636</v>
       </c>
       <c r="H6" s="0">
         <v>0.75</v>
@@ -326,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -343,7 +419,7 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="0">
-        <v>0.14150459990152872</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
         <v>1</v>
@@ -356,7 +432,7 @@
       </c>
       <c r="I7" s="0"/>
       <c r="J7" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="0">
         <v>2</v>
@@ -379,7 +455,7 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="E8" s="0">
-        <v>0.20555972902751291</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
         <v>1</v>
@@ -392,7 +468,7 @@
       </c>
       <c r="I8" s="0"/>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="0">
         <v>2</v>
@@ -415,26 +491,26 @@
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0.36968626817666278</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>0.81886424182454243</v>
+        <v>0.95045452440513256</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.53058875488782764</v>
       </c>
       <c r="H9" s="0">
-        <v>0.7178260108805814</v>
+        <v>0.73696953707282153</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -451,26 +527,26 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>0.47083575685722179</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>0.89370677710111168</v>
+        <v>0.92390023344035521</v>
       </c>
       <c r="G10" s="0">
-        <v>0</v>
+        <v>0.46870597931860758</v>
       </c>
       <c r="H10" s="0">
-        <v>0.73510295105252588</v>
+        <v>0.72941708798615412</v>
       </c>
       <c r="I10" s="0"/>
       <c r="J10" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="0">
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -487,26 +563,26 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="E11" s="0">
-        <v>0.39285250069954486</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0.83434024588123312</v>
+        <v>0.91033514513559277</v>
       </c>
       <c r="G11" s="0">
-        <v>0</v>
+        <v>0.41343820209174792</v>
       </c>
       <c r="H11" s="0">
-        <v>0.72207156973164799</v>
+        <v>0.72539361816879144</v>
       </c>
       <c r="I11" s="0"/>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -523,26 +599,26 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="E12" s="0">
-        <v>0.39038549652267363</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0.8326503192957031</v>
+        <v>0.90490296162299744</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>0.36798469949343388</v>
       </c>
       <c r="H12" s="0">
-        <v>0.72162789470133792</v>
+        <v>0.7237498774790655</v>
       </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
       </c>
       <c r="L12" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -559,26 +635,26 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="E13" s="0">
-        <v>0.40729888636898648</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>0.8444470155926892</v>
+        <v>0.90236312227257198</v>
       </c>
       <c r="G13" s="0">
-        <v>0</v>
+        <v>0.31341147822158499</v>
       </c>
       <c r="H13" s="0">
-        <v>0.72462992635308454</v>
+        <v>0.72297484848520499</v>
       </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" s="0">
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -595,23 +671,23 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="0">
-        <v>0.043597878389618025</v>
+        <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>1</v>
+        <v>0.98037421861766749</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.75</v>
+        <v>0.74499537200879318</v>
       </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0">
         <v>-1</v>
@@ -631,23 +707,23 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="E15" s="0">
-        <v>0.10100863743520386</v>
+        <v>0.99725174569692221</v>
       </c>
       <c r="F15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>0.75</v>
+        <v>0.74931104300947826</v>
       </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0">
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="0">
         <v>-1</v>
@@ -667,20 +743,20 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0.48888791044035734</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>0.59918925672123546</v>
+        <v>0.87660085392878151</v>
       </c>
       <c r="G16" s="0">
-        <v>4.6478336026298337e-08</v>
+        <v>0.22726873283456261</v>
       </c>
       <c r="H16" s="0">
-        <v>0.68614402424624454</v>
+        <v>0.71487361569579022</v>
       </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="0">
         <v>0</v>
@@ -703,26 +779,26 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>0.49606296857870458</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0.60343979365566602</v>
+        <v>0.90716256944423745</v>
       </c>
       <c r="G17" s="0">
-        <v>0</v>
+        <v>0.16125484589961425</v>
       </c>
       <c r="H17" s="0">
-        <v>0.68806026813331633</v>
+        <v>0.72443590868801633</v>
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -739,20 +815,20 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="E18" s="0">
-        <v>0.67693124009285</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0">
-        <v>0.75365814408542187</v>
+        <v>0.59003700979443852</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>0.72839418321015492</v>
+        <v>0.58826625470269434</v>
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -775,26 +851,26 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="E19" s="0">
-        <v>0.41601792667366966</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>0.56056028132180047</v>
+        <v>0.94848990712885595</v>
       </c>
       <c r="G19" s="0">
-        <v>0</v>
+        <v>0.083362730696787665</v>
       </c>
       <c r="H19" s="0">
-        <v>0.66515458834781804</v>
+        <v>0.73642498656601763</v>
       </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -811,20 +887,20 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="E20" s="0">
-        <v>0.46804385184554331</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0">
-        <v>0.58733268161939178</v>
+        <v>0.95250293432896127</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>0.68042776530801774</v>
+        <v>0.73753495276677872</v>
       </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -847,20 +923,20 @@
         <v>0.5</v>
       </c>
       <c r="E21" s="0">
-        <v>0.49277607798831496</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>0.60148136832288956</v>
+        <v>0.86855343687637254</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
       </c>
       <c r="H21" s="0">
-        <v>0.68718565915040819</v>
+        <v>0.71225101951237313</v>
       </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -883,20 +959,20 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="E22" s="0">
-        <v>0.48450205901160659</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
-        <v>0.59663484383331444</v>
+        <v>0.88853723600851864</v>
       </c>
       <c r="G22" s="0">
         <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0.68495981155245722</v>
+        <v>0.71868212017381472</v>
       </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -919,20 +995,20 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>1.0000000644384039</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
-        <v>0.11033367829606561</v>
+        <v>0.98409764364136276</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
       </c>
       <c r="H23" s="0">
-        <v>0.75000001433216856</v>
+        <v>0.745960184309302</v>
       </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K23" s="0">
         <v>0</v>
@@ -955,20 +1031,20 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="E24" s="0">
-        <v>0.99993368967336249</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>0.20503238940758292</v>
+        <v>0.51510415684329303</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>0.74998682066477595</v>
+        <v>0.54149238455734428</v>
       </c>
       <c r="I24" s="0"/>
       <c r="J24" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -991,20 +1067,20 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="E25" s="0">
-        <v>0.99994617111348338</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>0.18534058065212949</v>
+        <v>0.41866821539050192</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0.74998903646686643</v>
+        <v>0.47106561151294601</v>
       </c>
       <c r="I25" s="0"/>
       <c r="J25" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="0">
         <v>0</v>
@@ -1027,20 +1103,20 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="E26" s="0">
-        <v>1.000000022208912</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0.065393907821295422</v>
+        <v>0.29476470647948882</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>0.750000005189146</v>
+        <v>0.36166357621514333</v>
       </c>
       <c r="I26" s="0"/>
       <c r="J26" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -1063,20 +1139,20 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="E27" s="0">
-        <v>0.73727797162967268</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>0.0068646212434937534</v>
+        <v>0.46586975041220374</v>
       </c>
       <c r="G27" s="0">
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0.66331000867710754</v>
+        <v>0.50704746783826016</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K27" s="0">
         <v>0</v>
@@ -1099,20 +1175,20 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="0">
-        <v>1.0021083455751485</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>0.096792836068031796</v>
+        <v>0.015707636802396223</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>0.75047516336947395</v>
+        <v>0.023315694235411744</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
@@ -1135,23 +1211,23 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="E29" s="0">
-        <v>1.0000000610738757</v>
+        <v>0.15296557425301027</v>
       </c>
       <c r="F29" s="0">
-        <v>0.37152135542836429</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>0.75000000959590629</v>
+        <v>0.20694468445471242</v>
       </c>
       <c r="I29" s="0"/>
       <c r="J29" s="0">
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L29" s="0">
         <v>-1</v>

--- a/With Information/ParallelHomogeneousWithInfomationProvider.xlsx
+++ b/With Information/ParallelHomogeneousWithInfomationProvider.xlsx
@@ -13,7 +13,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
   <si>
     <t>M</t>
   </si>
@@ -141,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,15 +332,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,40 +379,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -239,13 +429,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>0.70969875152257245</v>
+        <v>0.72155591310289047</v>
       </c>
       <c r="F2" s="0">
         <v>1</v>
       </c>
       <c r="G2" s="0">
-        <v>0.51543511572225842</v>
+        <v>0.51783640594870639</v>
       </c>
       <c r="H2" s="0">
         <v>0.75</v>
@@ -275,13 +465,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.71923207179474824</v>
+        <v>0.73033464779552981</v>
       </c>
       <c r="F3" s="0">
         <v>1</v>
       </c>
       <c r="G3" s="0">
-        <v>0.48026529525957545</v>
+        <v>0.48226681424374995</v>
       </c>
       <c r="H3" s="0">
         <v>0.75</v>
@@ -311,13 +501,13 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>0.73093785823913981</v>
+        <v>0.73890647070283499</v>
       </c>
       <c r="F4" s="0">
         <v>1</v>
       </c>
       <c r="G4" s="0">
-        <v>0.45619525197236654</v>
+        <v>0.4570670737329014</v>
       </c>
       <c r="H4" s="0">
         <v>0.75</v>
@@ -347,13 +537,13 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="E5" s="0">
-        <v>0.7290342611473456</v>
+        <v>0.74171435119128082</v>
       </c>
       <c r="F5" s="0">
         <v>1</v>
       </c>
       <c r="G5" s="0">
-        <v>0.43518684875791408</v>
+        <v>0.43817092763914656</v>
       </c>
       <c r="H5" s="0">
         <v>0.75</v>
@@ -383,13 +573,13 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="E6" s="0">
-        <v>0.73841563919408038</v>
+        <v>0.7493388853304237</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>
       </c>
       <c r="G6" s="0">
-        <v>0.4205835034442636</v>
+        <v>0.42330660901653777</v>
       </c>
       <c r="H6" s="0">
         <v>0.75</v>
@@ -674,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0.98037421861766749</v>
+        <v>0.9845849463137617</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.74499537200879318</v>
+        <v>0.74608591486218567</v>
       </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0">
@@ -707,7 +897,7 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="E15" s="0">
-        <v>0.99725174569692221</v>
+        <v>0.99829545665405295</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -716,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>0.74931104300947826</v>
+        <v>0.74957313655838465</v>
       </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0">
@@ -890,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="0">
-        <v>0.95250293432896127</v>
+        <v>0.95828872109608543</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>0.73753495276677872</v>
+        <v>0.73911907993526249</v>
       </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0">
@@ -962,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="0">
-        <v>0.88853723600851864</v>
+        <v>0.89583167445557765</v>
       </c>
       <c r="G22" s="0">
         <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0.71868212017381472</v>
+        <v>0.72096257493419136</v>
       </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0">

--- a/With Information/ParallelHomogeneousWithInfomationProvider.xlsx
+++ b/With Information/ParallelHomogeneousWithInfomationProvider.xlsx
@@ -13,7 +13,295 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
   <si>
     <t>M</t>
   </si>
@@ -321,7 +609,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -337,11 +625,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -351,6 +647,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,17 +664,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L73"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="true"/>
     <col min="2" max="2" width="2.28515625" customWidth="true"/>
     <col min="3" max="3" width="4.140625" customWidth="true"/>
-    <col min="4" max="4" width="3.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="4.42578125" customWidth="true"/>
     <col min="10" max="10" width="6.5703125" customWidth="true"/>
     <col min="11" max="11" width="6.5703125" customWidth="true"/>
@@ -379,40 +683,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
@@ -423,19 +727,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E2" s="0">
-        <v>0.72155591310289047</v>
+        <v>0.7516681327450806</v>
       </c>
       <c r="F2" s="0">
         <v>1</v>
       </c>
       <c r="G2" s="0">
-        <v>0.51783640594870639</v>
+        <v>0.64074131444448934</v>
       </c>
       <c r="H2" s="0">
         <v>0.75</v>
@@ -459,19 +763,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D3" s="0">
         <v>0.10000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.73033464779552981</v>
+        <v>0.69247831983418573</v>
       </c>
       <c r="F3" s="0">
         <v>1</v>
       </c>
       <c r="G3" s="0">
-        <v>0.48226681424374995</v>
+        <v>0.61259996238691861</v>
       </c>
       <c r="H3" s="0">
         <v>0.75</v>
@@ -495,19 +799,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E4" s="0">
-        <v>0.73890647070283499</v>
+        <v>0.65292845742653238</v>
       </c>
       <c r="F4" s="0">
         <v>1</v>
       </c>
       <c r="G4" s="0">
-        <v>0.4570670737329014</v>
+        <v>0.58833154022893841</v>
       </c>
       <c r="H4" s="0">
         <v>0.75</v>
@@ -531,19 +835,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>0.74171435119128082</v>
+        <v>0.087106968157305481</v>
       </c>
       <c r="F5" s="0">
         <v>1</v>
       </c>
       <c r="G5" s="0">
-        <v>0.43817092763914656</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0.75</v>
@@ -556,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -567,32 +871,32 @@
         <v>3</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="E6" s="0">
-        <v>0.7493388853304237</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>
       </c>
       <c r="G6" s="0">
-        <v>0.42330660901653777</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0.75</v>
       </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="0">
         <v>2</v>
       </c>
       <c r="L6" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -603,10 +907,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D7" s="0">
-        <v>0.5</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -639,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D8" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -675,32 +979,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>0.95045452440513256</v>
+        <v>1</v>
       </c>
       <c r="G9" s="0">
-        <v>0.53058875488782764</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0.73696953707282153</v>
+        <v>0.75</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0">
         <v>-1</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -711,29 +1015,29 @@
         <v>3</v>
       </c>
       <c r="C10" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D10" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>0.62408805108491905</v>
       </c>
       <c r="F10" s="0">
-        <v>0.92390023344035521</v>
+        <v>1</v>
       </c>
       <c r="G10" s="0">
-        <v>0.46870597931860758</v>
+        <v>0.48301228940964658</v>
       </c>
       <c r="H10" s="0">
-        <v>0.72941708798615412</v>
+        <v>0.75</v>
       </c>
       <c r="I10" s="0"/>
       <c r="J10" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -747,29 +1051,29 @@
         <v>3</v>
       </c>
       <c r="C11" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D11" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>0.63215116743914568</v>
       </c>
       <c r="F11" s="0">
-        <v>0.91033514513559277</v>
+        <v>1</v>
       </c>
       <c r="G11" s="0">
-        <v>0.41343820209174792</v>
+        <v>0.46972271428884099</v>
       </c>
       <c r="H11" s="0">
-        <v>0.72539361816879144</v>
+        <v>0.75</v>
       </c>
       <c r="I11" s="0"/>
       <c r="J11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="0">
         <v>0</v>
@@ -783,29 +1087,29 @@
         <v>3</v>
       </c>
       <c r="C12" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D12" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>0.4900523695840156</v>
       </c>
       <c r="F12" s="0">
-        <v>0.90490296162299744</v>
+        <v>1</v>
       </c>
       <c r="G12" s="0">
-        <v>0.36798469949343388</v>
+        <v>0.43681642042189422</v>
       </c>
       <c r="H12" s="0">
-        <v>0.7237498774790655</v>
+        <v>0.75</v>
       </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -819,29 +1123,29 @@
         <v>3</v>
       </c>
       <c r="C13" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D13" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>0.59846851246925992</v>
       </c>
       <c r="F13" s="0">
-        <v>0.90236312227257198</v>
+        <v>1</v>
       </c>
       <c r="G13" s="0">
-        <v>0.31341147822158499</v>
+        <v>0.43662324612751219</v>
       </c>
       <c r="H13" s="0">
-        <v>0.72297484848520499</v>
+        <v>0.75</v>
       </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -858,19 +1162,19 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="D14" s="0">
-        <v>0.5</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0.9845849463137617</v>
+        <v>0.93495391750915802</v>
       </c>
       <c r="G14" s="0">
-        <v>0</v>
+        <v>0.49872024256371023</v>
       </c>
       <c r="H14" s="0">
-        <v>0.74608591486218567</v>
+        <v>0.73261192878799553</v>
       </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0">
@@ -880,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -894,29 +1198,29 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="D15" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>0.99829545665405295</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>0</v>
+        <v>0.92411193760442156</v>
       </c>
       <c r="G15" s="0">
-        <v>0</v>
+        <v>0.46904593353262586</v>
       </c>
       <c r="H15" s="0">
-        <v>0.74957313655838465</v>
+        <v>0.729478975097408</v>
       </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -927,22 +1231,22 @@
         <v>3</v>
       </c>
       <c r="C16" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>0.87660085392878151</v>
+        <v>0.91716986960519209</v>
       </c>
       <c r="G16" s="0">
-        <v>0.22726873283456261</v>
+        <v>0.44231041706128454</v>
       </c>
       <c r="H16" s="0">
-        <v>0.71487361569579022</v>
+        <v>0.72743518890473458</v>
       </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0">
@@ -963,22 +1267,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D17" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0.90716256944423745</v>
+        <v>0.91114287983419384</v>
       </c>
       <c r="G17" s="0">
-        <v>0.16125484589961425</v>
+        <v>0.41533437552570357</v>
       </c>
       <c r="H17" s="0">
-        <v>0.72443590868801633</v>
+        <v>0.72563642820893481</v>
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0">
@@ -999,29 +1303,29 @@
         <v>3</v>
       </c>
       <c r="C18" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D18" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>1.9037614896672952</v>
       </c>
       <c r="F18" s="0">
-        <v>0.59003700979443852</v>
+        <v>1</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>0.58826625470269434</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="0">
         <v>-1</v>
@@ -1035,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D19" s="0">
         <v>0.29999999999999999</v>
@@ -1044,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>0.94848990712885595</v>
+        <v>0.54477076704913485</v>
       </c>
       <c r="G19" s="0">
-        <v>0.083362730696787665</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>0.73642498656601763</v>
+        <v>0.56079957373035616</v>
       </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0">
@@ -1060,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -1071,22 +1375,22 @@
         <v>3</v>
       </c>
       <c r="C20" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D20" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
       </c>
       <c r="F20" s="0">
-        <v>0.95828872109608543</v>
+        <v>0.67887001630008181</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>0.73911907993526249</v>
+        <v>0.63565729791122172</v>
       </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0">
@@ -1107,22 +1411,22 @@
         <v>3</v>
       </c>
       <c r="C21" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D21" s="0">
         <v>0.39999999999999997</v>
       </c>
-      <c r="D21" s="0">
-        <v>0.5</v>
-      </c>
       <c r="E21" s="0">
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>0.86855343687637254</v>
+        <v>0.68715799600578276</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
       </c>
       <c r="H21" s="0">
-        <v>0.71225101951237313</v>
+        <v>0.63966749805966738</v>
       </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0">
@@ -1143,22 +1447,22 @@
         <v>3</v>
       </c>
       <c r="C22" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D22" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E22" s="0">
         <v>0</v>
       </c>
       <c r="F22" s="0">
-        <v>0.89583167445557765</v>
+        <v>0.69389632204326268</v>
       </c>
       <c r="G22" s="0">
         <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0.72096257493419136</v>
+        <v>0.64287877763708601</v>
       </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0">
@@ -1179,22 +1483,22 @@
         <v>3</v>
       </c>
       <c r="C23" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D23" s="0">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="0">
         <v>0</v>
       </c>
       <c r="F23" s="0">
-        <v>0.98409764364136276</v>
+        <v>0.71216006164304191</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
       </c>
       <c r="H23" s="0">
-        <v>0.745960184309302</v>
+        <v>0.6513650414642802</v>
       </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0">
@@ -1215,22 +1519,22 @@
         <v>3</v>
       </c>
       <c r="C24" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D24" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>0.51510415684329303</v>
+        <v>0.71487125721302269</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>0.54149238455734428</v>
+        <v>0.65259808666940411</v>
       </c>
       <c r="I24" s="0"/>
       <c r="J24" s="0">
@@ -1251,22 +1555,22 @@
         <v>3</v>
       </c>
       <c r="C25" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D25" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="E25" s="0">
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>0.41866821539050192</v>
+        <v>0.73010466269406427</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0.47106561151294601</v>
+        <v>0.65940026261348772</v>
       </c>
       <c r="I25" s="0"/>
       <c r="J25" s="0">
@@ -1287,22 +1591,22 @@
         <v>3</v>
       </c>
       <c r="C26" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D26" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0.29476470647948882</v>
+        <v>0.85350701478325364</v>
       </c>
       <c r="G26" s="0">
-        <v>0</v>
+        <v>0.32966963202378852</v>
       </c>
       <c r="H26" s="0">
-        <v>0.36166357621514333</v>
+        <v>0.70722576301950213</v>
       </c>
       <c r="I26" s="0"/>
       <c r="J26" s="0">
@@ -1312,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1323,22 +1627,22 @@
         <v>3</v>
       </c>
       <c r="C27" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D27" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>0.46586975041220374</v>
+        <v>0.85909543299181745</v>
       </c>
       <c r="G27" s="0">
-        <v>0</v>
+        <v>0.30534131924555669</v>
       </c>
       <c r="H27" s="0">
-        <v>0.50704746783826016</v>
+        <v>0.70911095076160002</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="0">
@@ -1348,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1359,22 +1663,22 @@
         <v>3</v>
       </c>
       <c r="C28" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D28" s="0">
-        <v>0.5</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>0.015707636802396223</v>
+        <v>0.69994371889666995</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>0.023315694235411744</v>
+        <v>0.64572368707955641</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="0">
@@ -1395,31 +1699,1615 @@
         <v>3</v>
       </c>
       <c r="C29" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D29" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="E29" s="0">
-        <v>0.15296557425301027</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>0</v>
+        <v>0.66414185970612283</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>0.20694468445471242</v>
+        <v>0.62836403480057346</v>
       </c>
       <c r="I29" s="0"/>
       <c r="J29" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K29" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B30" s="0">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.58582543919353081</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.58580928336286286</v>
+      </c>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="0">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B31" s="0">
+        <v>3</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.61136949404752217</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.60040988306042886</v>
+      </c>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="0">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B32" s="0">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.63615967956595343</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.61390369991611182</v>
+      </c>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="0">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B33" s="0">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.65869440879318575</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.62561159557209811</v>
+      </c>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="0">
+        <v>0</v>
+      </c>
+      <c r="L33" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B34" s="0">
+        <v>3</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.6749229727359114</v>
+      </c>
+      <c r="G34" s="0">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.63372384007035498</v>
+      </c>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="0">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B35" s="0">
+        <v>3</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.69235966759216216</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.64215030512617877</v>
+      </c>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="0">
+        <v>0</v>
+      </c>
+      <c r="L35" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B36" s="0">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.70799347125720946</v>
+      </c>
+      <c r="G36" s="0">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.64945672509782015</v>
+      </c>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="0">
+        <v>0</v>
+      </c>
+      <c r="L36" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B37" s="0">
+        <v>3</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.72208864663718964</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.65584738016407573</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="0">
+        <v>0</v>
+      </c>
+      <c r="L37" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B38" s="0">
+        <v>3</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.54256208989587118</v>
+      </c>
+      <c r="G38" s="0">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.55939850525981993</v>
+      </c>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K38" s="0">
+        <v>0</v>
+      </c>
+      <c r="L38" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B39" s="0">
+        <v>3</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.43476039953989637</v>
+      </c>
+      <c r="G39" s="0">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.48366822798000231</v>
+      </c>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K39" s="0">
+        <v>0</v>
+      </c>
+      <c r="L39" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B40" s="0">
+        <v>3</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.39096006659297328</v>
+      </c>
+      <c r="G40" s="0">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.44852986564230113</v>
+      </c>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="0">
+        <v>0</v>
+      </c>
+      <c r="L40" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B41" s="0">
+        <v>3</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.3232969573375839</v>
+      </c>
+      <c r="G41" s="0">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.38887233744822935</v>
+      </c>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K41" s="0">
+        <v>0</v>
+      </c>
+      <c r="L41" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B42" s="0">
+        <v>3</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0.24873453114834426</v>
+      </c>
+      <c r="G42" s="0">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.3150801606425146</v>
+      </c>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="0">
+        <v>0</v>
+      </c>
+      <c r="L42" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B43" s="0">
+        <v>3</v>
+      </c>
+      <c r="C43" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.19830548215506344</v>
+      </c>
+      <c r="G43" s="0">
+        <v>0</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.26008275293669825</v>
+      </c>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="0">
+        <v>0</v>
+      </c>
+      <c r="L43" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B44" s="0">
+        <v>3</v>
+      </c>
+      <c r="C44" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.19047024869077697</v>
+      </c>
+      <c r="G44" s="0">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.25115397092070973</v>
+      </c>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K44" s="0">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B45" s="0">
+        <v>3</v>
+      </c>
+      <c r="C45" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E45" s="0">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0.18823866316931651</v>
+      </c>
+      <c r="G45" s="0">
+        <v>0</v>
+      </c>
+      <c r="H45" s="0">
+        <v>0.2485917029602695</v>
+      </c>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="0">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B46" s="0">
+        <v>3</v>
+      </c>
+      <c r="C46" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.18520907911599724</v>
+      </c>
+      <c r="G46" s="0">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.24509949480417192</v>
+      </c>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="0">
+        <v>0</v>
+      </c>
+      <c r="L46" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B47" s="0">
+        <v>3</v>
+      </c>
+      <c r="C47" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0.18227529767364009</v>
+      </c>
+      <c r="G47" s="0">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.2417026539389408</v>
+      </c>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K47" s="0">
+        <v>0</v>
+      </c>
+      <c r="L47" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B48" s="0">
+        <v>3</v>
+      </c>
+      <c r="C48" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.17953700270579834</v>
+      </c>
+      <c r="G48" s="0">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0">
+        <v>0.23851874679853058</v>
+      </c>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K48" s="0">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B49" s="0">
+        <v>3</v>
+      </c>
+      <c r="C49" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.1771159068679109</v>
+      </c>
+      <c r="G49" s="0">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0">
+        <v>0.23569284930472859</v>
+      </c>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K49" s="0">
+        <v>0</v>
+      </c>
+      <c r="L49" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B50" s="0">
+        <v>3</v>
+      </c>
+      <c r="C50" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.29992069826126633</v>
+      </c>
+      <c r="G50" s="0">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.36667327069385697</v>
+      </c>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K50" s="0">
+        <v>0</v>
+      </c>
+      <c r="L50" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B51" s="0">
+        <v>3</v>
+      </c>
+      <c r="C51" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.26335534316712189</v>
+      </c>
+      <c r="G51" s="0">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0">
+        <v>0.33024329869238672</v>
+      </c>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K51" s="0">
+        <v>0</v>
+      </c>
+      <c r="L51" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B52" s="0">
+        <v>3</v>
+      </c>
+      <c r="C52" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.22011743769702294</v>
+      </c>
+      <c r="G52" s="0">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0">
+        <v>0.2843907354316545</v>
+      </c>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K52" s="0">
+        <v>0</v>
+      </c>
+      <c r="L52" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B53" s="0">
+        <v>3</v>
+      </c>
+      <c r="C53" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0.19295026117574698</v>
+      </c>
+      <c r="G53" s="0">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0">
+        <v>0.25399146354280666</v>
+      </c>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="0">
+        <v>0</v>
+      </c>
+      <c r="L53" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B54" s="0">
+        <v>3</v>
+      </c>
+      <c r="C54" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.19175276394575494</v>
+      </c>
+      <c r="G54" s="0">
+        <v>0</v>
+      </c>
+      <c r="H54" s="0">
+        <v>0.25262266865368616</v>
+      </c>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K54" s="0">
+        <v>0</v>
+      </c>
+      <c r="L54" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B55" s="0">
+        <v>3</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.19571583308601648</v>
+      </c>
+      <c r="G55" s="0">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0">
+        <v>0.25714327075598159</v>
+      </c>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="0">
+        <v>0</v>
+      </c>
+      <c r="L55" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B56" s="0">
+        <v>3</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.19742219055589025</v>
+      </c>
+      <c r="G56" s="0">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0">
+        <v>0.25908142270940399</v>
+      </c>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K56" s="0">
+        <v>0</v>
+      </c>
+      <c r="L56" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B57" s="0">
+        <v>3</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.19726618695767184</v>
+      </c>
+      <c r="G57" s="0">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0.2589044334805336</v>
+      </c>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K57" s="0">
+        <v>0</v>
+      </c>
+      <c r="L57" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B58" s="0">
+        <v>3</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E58" s="0">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0.19547650649326848</v>
+      </c>
+      <c r="G58" s="0">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0">
+        <v>0.25687103650299009</v>
+      </c>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K58" s="0">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B59" s="0">
+        <v>3</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0.19250781374873296</v>
+      </c>
+      <c r="G59" s="0">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0">
+        <v>0.25348601147001737</v>
+      </c>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K59" s="0">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B60" s="0">
+        <v>3</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="0">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="E60" s="0">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0.18908266607057758</v>
+      </c>
+      <c r="G60" s="0">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0">
+        <v>0.24956177740235438</v>
+      </c>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K60" s="0">
+        <v>0</v>
+      </c>
+      <c r="L60" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B61" s="0">
+        <v>3</v>
+      </c>
+      <c r="C61" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0.1857451255674363</v>
+      </c>
+      <c r="G61" s="0">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0">
+        <v>0.24571854651010705</v>
+      </c>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K61" s="0">
+        <v>0</v>
+      </c>
+      <c r="L61" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B62" s="0">
+        <v>3</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0.12187340740192126</v>
+      </c>
+      <c r="G62" s="0">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0">
+        <v>0.16840953398379799</v>
+      </c>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K62" s="0">
+        <v>0</v>
+      </c>
+      <c r="L62" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B63" s="0">
+        <v>3</v>
+      </c>
+      <c r="C63" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D63" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="E63" s="0">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0.13952794384914075</v>
+      </c>
+      <c r="G63" s="0">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0">
+        <v>0.19050295280511262</v>
+      </c>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K63" s="0">
+        <v>0</v>
+      </c>
+      <c r="L63" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B64" s="0">
+        <v>3</v>
+      </c>
+      <c r="C64" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D64" s="0">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="E64" s="0">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0">
+        <v>0.15560154520155259</v>
+      </c>
+      <c r="G64" s="0">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0">
+        <v>0.21013232689607</v>
+      </c>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K64" s="0">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B65" s="0">
+        <v>3</v>
+      </c>
+      <c r="C65" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D65" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="E65" s="0">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0">
+        <v>0.16801520252402974</v>
+      </c>
+      <c r="G65" s="0">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0">
+        <v>0.22497942534300405</v>
+      </c>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K65" s="0">
+        <v>0</v>
+      </c>
+      <c r="L65" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B66" s="0">
+        <v>3</v>
+      </c>
+      <c r="C66" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D66" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0</v>
+      </c>
+      <c r="F66" s="0">
+        <v>0.17756920484366587</v>
+      </c>
+      <c r="G66" s="0">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0">
+        <v>0.23622271052692612</v>
+      </c>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K66" s="0">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B67" s="0">
+        <v>3</v>
+      </c>
+      <c r="C67" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D67" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0</v>
+      </c>
+      <c r="F67" s="0">
+        <v>0.18442083956300831</v>
+      </c>
+      <c r="G67" s="0">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0">
+        <v>0.24418829969682426</v>
+      </c>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K67" s="0">
+        <v>0</v>
+      </c>
+      <c r="L67" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B68" s="0">
+        <v>3</v>
+      </c>
+      <c r="C68" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D68" s="0">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0</v>
+      </c>
+      <c r="F68" s="0">
+        <v>0.18885685698436344</v>
+      </c>
+      <c r="G68" s="0">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0">
+        <v>0.24930235829150005</v>
+      </c>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K68" s="0">
+        <v>0</v>
+      </c>
+      <c r="L68" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B69" s="0">
+        <v>3</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D69" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0</v>
+      </c>
+      <c r="F69" s="0">
+        <v>0.1911942133278077</v>
+      </c>
+      <c r="G69" s="0">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0">
+        <v>0.25198337975903295</v>
+      </c>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K69" s="0">
+        <v>0</v>
+      </c>
+      <c r="L69" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B70" s="0">
+        <v>3</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D70" s="0">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0">
+        <v>0.19173774122543971</v>
+      </c>
+      <c r="G70" s="0">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0">
+        <v>0.25260548139708905</v>
+      </c>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K70" s="0">
+        <v>0</v>
+      </c>
+      <c r="L70" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B71" s="0">
+        <v>3</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0</v>
+      </c>
+      <c r="F71" s="0">
+        <v>0.19098268517107375</v>
+      </c>
+      <c r="G71" s="0">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0">
+        <v>0.25174113576769713</v>
+      </c>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K71" s="0">
+        <v>0</v>
+      </c>
+      <c r="L71" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B72" s="0">
+        <v>3</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0">
+        <v>0.18945713923956453</v>
+      </c>
+      <c r="G72" s="0">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0">
+        <v>0.24999179524986054</v>
+      </c>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K72" s="0">
+        <v>0</v>
+      </c>
+      <c r="L72" s="0">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B73" s="0">
+        <v>3</v>
+      </c>
+      <c r="C73" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D73" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0">
+        <v>0.18778951659713425</v>
+      </c>
+      <c r="G73" s="0">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0">
+        <v>0.24807496710230159</v>
+      </c>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K73" s="0">
+        <v>0</v>
+      </c>
+      <c r="L73" s="0">
         <v>-1</v>
       </c>
     </row>

--- a/With Information/ParallelHomogeneousWithInfomationProvider.xlsx
+++ b/With Information/ParallelHomogeneousWithInfomationProvider.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c_p</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag_q</t>
+  </si>
+  <si>
+    <t>flag_p</t>
+  </si>
+  <si>
+    <t>flag_T</t>
+  </si>
   <si>
     <t>M</t>
   </si>
@@ -609,7 +681,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -633,11 +705,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -655,6 +729,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,13 +743,13 @@
   <dimension ref="A1:L73"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="true"/>
+    <col min="1" max="1" width="3.140625" customWidth="true"/>
     <col min="2" max="2" width="2.28515625" customWidth="true"/>
     <col min="3" max="3" width="4.140625" customWidth="true"/>
-    <col min="4" max="4" width="4.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="3.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="4.42578125" customWidth="true"/>
     <col min="10" max="10" width="6.5703125" customWidth="true"/>
@@ -683,63 +759,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0">
         <v>3</v>
       </c>
       <c r="C2" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="0">
-        <v>0.7516681327450806</v>
+        <v>0.79744405379542027</v>
       </c>
       <c r="F2" s="0">
         <v>1</v>
       </c>
       <c r="G2" s="0">
-        <v>0.64074131444448934</v>
+        <v>0.60750420211042599</v>
       </c>
       <c r="H2" s="0">
         <v>0.75</v>
@@ -757,25 +833,25 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0">
         <v>3</v>
       </c>
       <c r="C3" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>0.69247831983418573</v>
+        <v>0.80435417672800147</v>
       </c>
       <c r="F3" s="0">
         <v>1</v>
       </c>
       <c r="G3" s="0">
-        <v>0.61259996238691861</v>
+        <v>0.59401135395637261</v>
       </c>
       <c r="H3" s="0">
         <v>0.75</v>
@@ -793,25 +869,25 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>0.15000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="0">
-        <v>0.65292845742653238</v>
+        <v>0.80433730116460844</v>
       </c>
       <c r="F4" s="0">
         <v>1</v>
       </c>
       <c r="G4" s="0">
-        <v>0.58833154022893841</v>
+        <v>0.58178990762096605</v>
       </c>
       <c r="H4" s="0">
         <v>0.75</v>
@@ -829,19 +905,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0">
         <v>3</v>
       </c>
       <c r="C5" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0">
-        <v>0.087106968157305481</v>
+        <v>0.41861716322658493</v>
       </c>
       <c r="F5" s="0">
         <v>1</v>
@@ -865,19 +941,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0">
         <v>3</v>
       </c>
       <c r="C6" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.20325566753234275</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>
@@ -890,7 +966,7 @@
       </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
         <v>2</v>
@@ -901,16 +977,16 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0">
         <v>3</v>
       </c>
       <c r="C7" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0">
-        <v>0.29999999999999999</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -937,97 +1013,97 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0">
         <v>3</v>
       </c>
       <c r="C8" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.34999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>0.76434877609624385</v>
       </c>
       <c r="F8" s="0">
         <v>1</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.52964370233386993</v>
       </c>
       <c r="H8" s="0">
         <v>0.75</v>
       </c>
       <c r="I8" s="0"/>
       <c r="J8" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <v>2</v>
       </c>
       <c r="L8" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0">
         <v>3</v>
       </c>
       <c r="C9" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>0.75500962127404858</v>
       </c>
       <c r="F9" s="0">
         <v>1</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.51792483593345795</v>
       </c>
       <c r="H9" s="0">
         <v>0.75</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
         <v>2</v>
       </c>
       <c r="L9" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0">
         <v>3</v>
       </c>
       <c r="C10" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0">
-        <v>0.44999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E10" s="0">
-        <v>0.62408805108491905</v>
+        <v>0.74640202155154323</v>
       </c>
       <c r="F10" s="0">
         <v>1</v>
       </c>
       <c r="G10" s="0">
-        <v>0.48301228940964658</v>
+        <v>0.5067411228935953</v>
       </c>
       <c r="H10" s="0">
         <v>0.75</v>
@@ -1045,25 +1121,25 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0">
         <v>3</v>
       </c>
       <c r="C11" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0">
-        <v>0.63215116743914568</v>
+        <v>0.7114401385117981</v>
       </c>
       <c r="F11" s="0">
         <v>1</v>
       </c>
       <c r="G11" s="0">
-        <v>0.46972271428884099</v>
+        <v>0.49272382731118669</v>
       </c>
       <c r="H11" s="0">
         <v>0.75</v>
@@ -1081,25 +1157,25 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0">
         <v>3</v>
       </c>
       <c r="C12" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>0.54999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="E12" s="0">
-        <v>0.4900523695840156</v>
+        <v>0.40935997641124122</v>
       </c>
       <c r="F12" s="0">
         <v>1</v>
       </c>
       <c r="G12" s="0">
-        <v>0.43681642042189422</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0">
         <v>0.75</v>
@@ -1112,33 +1188,33 @@
         <v>2</v>
       </c>
       <c r="L12" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0">
         <v>3</v>
       </c>
       <c r="C13" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="E13" s="0">
-        <v>0.59846851246925992</v>
+        <v>0.31688864128815325</v>
       </c>
       <c r="F13" s="0">
         <v>1</v>
       </c>
       <c r="G13" s="0">
-        <v>0.43662324612751219</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0.75</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0">
@@ -1148,40 +1224,40 @@
         <v>2</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0">
         <v>3</v>
       </c>
       <c r="C14" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D14" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>0.68127679202503588</v>
       </c>
       <c r="F14" s="0">
-        <v>0.93495391750915802</v>
+        <v>1</v>
       </c>
       <c r="G14" s="0">
-        <v>0.49872024256371023</v>
+        <v>0.65857000164832413</v>
       </c>
       <c r="H14" s="0">
-        <v>0.73261192878799553</v>
+        <v>0.75</v>
       </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="0">
         <v>0</v>
@@ -1189,35 +1265,35 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0">
         <v>3</v>
       </c>
       <c r="C15" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>0.59253751400790988</v>
       </c>
       <c r="F15" s="0">
-        <v>0.92411193760442156</v>
+        <v>1</v>
       </c>
       <c r="G15" s="0">
-        <v>0.46904593353262586</v>
+        <v>0.63545043983787741</v>
       </c>
       <c r="H15" s="0">
-        <v>0.729478975097408</v>
+        <v>0.75</v>
       </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
@@ -1225,35 +1301,35 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0">
         <v>3</v>
       </c>
       <c r="C16" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D16" s="0">
-        <v>0.15000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>0.51246647579296578</v>
       </c>
       <c r="F16" s="0">
-        <v>0.91716986960519209</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0">
-        <v>0.44231041706128454</v>
+        <v>0.61231782435761462</v>
       </c>
       <c r="H16" s="0">
-        <v>0.72743518890473458</v>
+        <v>0.75</v>
       </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -1261,55 +1337,55 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0">
         <v>3</v>
       </c>
       <c r="C17" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D17" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0.91114287983419384</v>
+        <v>1</v>
       </c>
       <c r="G17" s="0">
-        <v>0.41533437552570357</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0.72563642820893481</v>
+        <v>0.75</v>
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0">
         <v>-1</v>
       </c>
       <c r="K17" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0">
         <v>3</v>
       </c>
       <c r="C18" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="E18" s="0">
-        <v>1.9037614896672952</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0">
         <v>1</v>
@@ -1318,11 +1394,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>0.74999999999999989</v>
+        <v>0.75</v>
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="0">
         <v>2</v>
@@ -1333,35 +1409,35 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0">
         <v>3</v>
       </c>
       <c r="C19" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D19" s="0">
-        <v>0.29999999999999999</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>0.54477076704913485</v>
+        <v>1</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>0.56079957373035616</v>
+        <v>0.75</v>
       </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0">
         <v>-1</v>
       </c>
       <c r="K19" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="0">
         <v>-1</v>
@@ -1369,251 +1445,251 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0">
         <v>3</v>
       </c>
       <c r="C20" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D20" s="0">
-        <v>0.34999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="E20" s="0">
-        <v>0</v>
+        <v>0.49191851936601033</v>
       </c>
       <c r="F20" s="0">
-        <v>0.67887001630008181</v>
+        <v>1</v>
       </c>
       <c r="G20" s="0">
-        <v>0</v>
+        <v>0.57003042566773565</v>
       </c>
       <c r="H20" s="0">
-        <v>0.63565729791122172</v>
+        <v>0.75</v>
       </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0">
         <v>3</v>
       </c>
       <c r="C21" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="E21" s="0">
-        <v>0</v>
+        <v>0.47430541571127066</v>
       </c>
       <c r="F21" s="0">
-        <v>0.68715799600578276</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0">
-        <v>0</v>
+        <v>0.55725740928427259</v>
       </c>
       <c r="H21" s="0">
-        <v>0.63966749805966738</v>
+        <v>0.75</v>
       </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B22" s="0">
         <v>3</v>
       </c>
       <c r="C22" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D22" s="0">
-        <v>0.44999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E22" s="0">
-        <v>0</v>
+        <v>0.34594688237878246</v>
       </c>
       <c r="F22" s="0">
-        <v>0.69389632204326268</v>
+        <v>1</v>
       </c>
       <c r="G22" s="0">
-        <v>0</v>
+        <v>0.5284014545335366</v>
       </c>
       <c r="H22" s="0">
-        <v>0.64287877763708601</v>
+        <v>0.75</v>
       </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0">
         <v>3</v>
       </c>
       <c r="C23" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D23" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E23" s="0">
-        <v>0</v>
+        <v>0.43854477158081173</v>
       </c>
       <c r="F23" s="0">
-        <v>0.71216006164304191</v>
+        <v>1</v>
       </c>
       <c r="G23" s="0">
-        <v>0</v>
+        <v>0.5319424556648642</v>
       </c>
       <c r="H23" s="0">
-        <v>0.6513650414642802</v>
+        <v>0.75</v>
       </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0">
         <v>3</v>
       </c>
       <c r="C24" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.54999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="E24" s="0">
-        <v>0</v>
+        <v>0.43716061057512268</v>
       </c>
       <c r="F24" s="0">
-        <v>0.71487125721302269</v>
+        <v>1</v>
       </c>
       <c r="G24" s="0">
-        <v>0</v>
+        <v>0.52190460334549427</v>
       </c>
       <c r="H24" s="0">
-        <v>0.65259808666940411</v>
+        <v>0.75</v>
       </c>
       <c r="I24" s="0"/>
       <c r="J24" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B25" s="0">
         <v>3</v>
       </c>
       <c r="C25" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D25" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="E25" s="0">
-        <v>0</v>
+        <v>0.44399821818536578</v>
       </c>
       <c r="F25" s="0">
-        <v>0.73010466269406427</v>
+        <v>1</v>
       </c>
       <c r="G25" s="0">
-        <v>0</v>
+        <v>0.51204830979438043</v>
       </c>
       <c r="H25" s="0">
-        <v>0.65940026261348772</v>
+        <v>0.75</v>
       </c>
       <c r="I25" s="0"/>
       <c r="J25" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B26" s="0">
         <v>3</v>
       </c>
       <c r="C26" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D26" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0.85350701478325364</v>
+        <v>1</v>
       </c>
       <c r="G26" s="0">
-        <v>0.32966963202378852</v>
+        <v>0.54883347029825147</v>
       </c>
       <c r="H26" s="0">
-        <v>0.70722576301950213</v>
+        <v>0.75</v>
       </c>
       <c r="I26" s="0"/>
       <c r="J26" s="0">
         <v>-1</v>
       </c>
       <c r="K26" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -1621,35 +1697,35 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B27" s="0">
         <v>3</v>
       </c>
       <c r="C27" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D27" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>0.85909543299181745</v>
+        <v>1</v>
       </c>
       <c r="G27" s="0">
-        <v>0.30534131924555669</v>
+        <v>0.53101943042157995</v>
       </c>
       <c r="H27" s="0">
-        <v>0.70911095076160002</v>
+        <v>0.75</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="0">
         <v>-1</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -1657,28 +1733,28 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B28" s="0">
         <v>3</v>
       </c>
       <c r="C28" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.15000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>0.69994371889666995</v>
+        <v>0.99694560889113959</v>
       </c>
       <c r="G28" s="0">
-        <v>0</v>
+        <v>0.51347942446372419</v>
       </c>
       <c r="H28" s="0">
-        <v>0.64572368707955641</v>
+        <v>0.74923406277268678</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="0">
@@ -1688,40 +1764,40 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B29" s="0">
         <v>3</v>
       </c>
       <c r="C29" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D29" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>0.66414185970612283</v>
+        <v>1</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>0.62836403480057346</v>
+        <v>0.75</v>
       </c>
       <c r="I29" s="0"/>
       <c r="J29" s="0">
         <v>-1</v>
       </c>
       <c r="K29" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="0">
         <v>-1</v>
@@ -1729,28 +1805,28 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B30" s="0">
         <v>3</v>
       </c>
       <c r="C30" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D30" s="0">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>0.58582543919353081</v>
+        <v>0.99286760632303017</v>
       </c>
       <c r="G30" s="0">
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>0.58580928336286286</v>
+        <v>0.74820409311279645</v>
       </c>
       <c r="I30" s="0"/>
       <c r="J30" s="0">
@@ -1765,28 +1841,28 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0">
         <v>3</v>
       </c>
       <c r="C31" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>0.29999999999999999</v>
+        <v>3</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
       </c>
       <c r="F31" s="0">
-        <v>0.61136949404752217</v>
+        <v>0.97241781722935394</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>0.60040988306042886</v>
+        <v>0.74290901413450972</v>
       </c>
       <c r="I31" s="0"/>
       <c r="J31" s="0">
@@ -1801,28 +1877,28 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B32" s="0">
         <v>3</v>
       </c>
       <c r="C32" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D32" s="0">
-        <v>0.34999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0.63615967956595343</v>
+        <v>0.96615389925520079</v>
       </c>
       <c r="G32" s="0">
-        <v>0</v>
+        <v>0.45529420703983392</v>
       </c>
       <c r="H32" s="0">
-        <v>0.61390369991611182</v>
+        <v>0.74124239200749198</v>
       </c>
       <c r="I32" s="0"/>
       <c r="J32" s="0">
@@ -1832,33 +1908,33 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B33" s="0">
         <v>3</v>
       </c>
       <c r="C33" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D33" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
       </c>
       <c r="F33" s="0">
-        <v>0.65869440879318575</v>
+        <v>0.95457164231248226</v>
       </c>
       <c r="G33" s="0">
-        <v>0</v>
+        <v>0.43560653714054953</v>
       </c>
       <c r="H33" s="0">
-        <v>0.62561159557209811</v>
+        <v>0.73810353862688849</v>
       </c>
       <c r="I33" s="0"/>
       <c r="J33" s="0">
@@ -1868,33 +1944,33 @@
         <v>0</v>
       </c>
       <c r="L33" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B34" s="0">
         <v>3</v>
       </c>
       <c r="C34" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.44999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>0.6749229727359114</v>
+        <v>0.94933863478984593</v>
       </c>
       <c r="G34" s="0">
-        <v>0</v>
+        <v>0.42152472674900915</v>
       </c>
       <c r="H34" s="0">
-        <v>0.63372384007035498</v>
+        <v>0.73666050868148458</v>
       </c>
       <c r="I34" s="0"/>
       <c r="J34" s="0">
@@ -1904,33 +1980,33 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B35" s="0">
         <v>3</v>
       </c>
       <c r="C35" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D35" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>0.69235966759216216</v>
+        <v>0.94272228086140175</v>
       </c>
       <c r="G35" s="0">
-        <v>0</v>
+        <v>0.40476899485413381</v>
       </c>
       <c r="H35" s="0">
-        <v>0.64215030512617877</v>
+        <v>0.73481340765323577</v>
       </c>
       <c r="I35" s="0"/>
       <c r="J35" s="0">
@@ -1940,33 +2016,33 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B36" s="0">
         <v>3</v>
       </c>
       <c r="C36" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D36" s="0">
-        <v>0.54999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
       </c>
       <c r="F36" s="0">
-        <v>0.70799347125720946</v>
+        <v>0.94148076916243884</v>
       </c>
       <c r="G36" s="0">
-        <v>0</v>
+        <v>0.39525386500948806</v>
       </c>
       <c r="H36" s="0">
-        <v>0.64945672509782015</v>
+        <v>0.73446396741412656</v>
       </c>
       <c r="I36" s="0"/>
       <c r="J36" s="0">
@@ -1976,33 +2052,33 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B37" s="0">
         <v>3</v>
       </c>
       <c r="C37" s="0">
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>0.72208864663718964</v>
+        <v>0.94076218308347792</v>
       </c>
       <c r="G37" s="0">
-        <v>0</v>
+        <v>0.38691069566444025</v>
       </c>
       <c r="H37" s="0">
-        <v>0.65584738016407573</v>
+        <v>0.73426129789609096</v>
       </c>
       <c r="I37" s="0"/>
       <c r="J37" s="0">
@@ -2012,33 +2088,33 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B38" s="0">
         <v>3</v>
       </c>
       <c r="C38" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D38" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
       </c>
       <c r="F38" s="0">
-        <v>0.54256208989587118</v>
+        <v>0.86861343793832901</v>
       </c>
       <c r="G38" s="0">
-        <v>0</v>
+        <v>0.44066547699760245</v>
       </c>
       <c r="H38" s="0">
-        <v>0.55939850525981993</v>
+        <v>0.71227073952236974</v>
       </c>
       <c r="I38" s="0"/>
       <c r="J38" s="0">
@@ -2048,33 +2124,33 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B39" s="0">
         <v>3</v>
       </c>
       <c r="C39" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D39" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>0.43476039953989637</v>
+        <v>0.86836852589618507</v>
       </c>
       <c r="G39" s="0">
-        <v>0</v>
+        <v>0.42098564446313635</v>
       </c>
       <c r="H39" s="0">
-        <v>0.48366822798000231</v>
+        <v>0.71219023069396203</v>
       </c>
       <c r="I39" s="0"/>
       <c r="J39" s="0">
@@ -2084,33 +2160,33 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B40" s="0">
         <v>3</v>
       </c>
       <c r="C40" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D40" s="0">
-        <v>0.15000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>0.39096006659297328</v>
+        <v>0.8689314734013327</v>
       </c>
       <c r="G40" s="0">
-        <v>0</v>
+        <v>0.40237551605371974</v>
       </c>
       <c r="H40" s="0">
-        <v>0.44852986564230113</v>
+        <v>0.71237522348397486</v>
       </c>
       <c r="I40" s="0"/>
       <c r="J40" s="0">
@@ -2120,33 +2196,33 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B41" s="0">
         <v>3</v>
       </c>
       <c r="C41" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D41" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>0.3232969573375839</v>
+        <v>0.86910048157902475</v>
       </c>
       <c r="G41" s="0">
-        <v>0</v>
+        <v>0.3827040827832105</v>
       </c>
       <c r="H41" s="0">
-        <v>0.38887233744822935</v>
+        <v>0.71243071894559651</v>
       </c>
       <c r="I41" s="0"/>
       <c r="J41" s="0">
@@ -2156,33 +2232,33 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B42" s="0">
         <v>3</v>
       </c>
       <c r="C42" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D42" s="0">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0.24873453114834426</v>
+        <v>0.87065370106865181</v>
       </c>
       <c r="G42" s="0">
-        <v>0</v>
+        <v>0.36651774149600819</v>
       </c>
       <c r="H42" s="0">
-        <v>0.3150801606425146</v>
+        <v>0.71293980307203841</v>
       </c>
       <c r="I42" s="0"/>
       <c r="J42" s="0">
@@ -2192,33 +2268,33 @@
         <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B43" s="0">
         <v>3</v>
       </c>
       <c r="C43" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D43" s="0">
-        <v>0.29999999999999999</v>
+        <v>3</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0.19830548215506344</v>
+        <v>0.83663463224101509</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>0.26008275293669825</v>
+        <v>0.70139661354071925</v>
       </c>
       <c r="I43" s="0"/>
       <c r="J43" s="0">
@@ -2233,28 +2309,28 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B44" s="0">
         <v>3</v>
       </c>
       <c r="C44" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D44" s="0">
-        <v>0.34999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
       </c>
       <c r="F44" s="0">
-        <v>0.19047024869077697</v>
+        <v>0.81900900677153476</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>0.25115397092070973</v>
+        <v>0.69508060282754669</v>
       </c>
       <c r="I44" s="0"/>
       <c r="J44" s="0">
@@ -2269,28 +2345,28 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B45" s="0">
         <v>3</v>
       </c>
       <c r="C45" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D45" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>0.18823866316931651</v>
+        <v>0.81331307950589804</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
       </c>
       <c r="H45" s="0">
-        <v>0.2485917029602695</v>
+        <v>0.69298866487405164</v>
       </c>
       <c r="I45" s="0"/>
       <c r="J45" s="0">
@@ -2305,28 +2381,28 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B46" s="0">
         <v>3</v>
       </c>
       <c r="C46" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D46" s="0">
-        <v>0.44999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
       </c>
       <c r="F46" s="0">
-        <v>0.18520907911599724</v>
+        <v>0.47455796027316738</v>
       </c>
       <c r="G46" s="0">
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0.24509949480417192</v>
+        <v>0.51334991968044008</v>
       </c>
       <c r="I46" s="0"/>
       <c r="J46" s="0">
@@ -2341,28 +2417,28 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B47" s="0">
         <v>3</v>
       </c>
       <c r="C47" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D47" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0.18227529767364009</v>
+        <v>0.39171654100306386</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
       </c>
       <c r="H47" s="0">
-        <v>0.2417026539389408</v>
+        <v>0.44915939054362475</v>
       </c>
       <c r="I47" s="0"/>
       <c r="J47" s="0">
@@ -2377,28 +2453,28 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B48" s="0">
         <v>3</v>
       </c>
       <c r="C48" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D48" s="0">
-        <v>0.54999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>0.17953700270579834</v>
+        <v>0.33104361454707937</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>0.23851874679853058</v>
+        <v>0.39604530415051709</v>
       </c>
       <c r="I48" s="0"/>
       <c r="J48" s="0">
@@ -2413,28 +2489,28 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B49" s="0">
         <v>3</v>
       </c>
       <c r="C49" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="D49" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>0.1771159068679109</v>
+        <v>0.33181326849478765</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0.23569284930472859</v>
+        <v>0.39675302155358189</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0">
@@ -2449,28 +2525,28 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B50" s="0">
         <v>3</v>
       </c>
       <c r="C50" s="0">
+        <v>5</v>
+      </c>
+      <c r="D50" s="0">
         <v>0.5</v>
       </c>
-      <c r="D50" s="0">
-        <v>0.050000000000000003</v>
-      </c>
       <c r="E50" s="0">
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0.29992069826126633</v>
+        <v>0.84979551641011808</v>
       </c>
       <c r="G50" s="0">
-        <v>0</v>
+        <v>0.34387913558593292</v>
       </c>
       <c r="H50" s="0">
-        <v>0.36667327069385697</v>
+        <v>0.70596132701316372</v>
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0">
@@ -2480,33 +2556,33 @@
         <v>0</v>
       </c>
       <c r="L50" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B51" s="0">
         <v>3</v>
       </c>
       <c r="C51" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D51" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0.26335534316712189</v>
+        <v>0.85547586321505298</v>
       </c>
       <c r="G51" s="0">
-        <v>0</v>
+        <v>0.32244640158556687</v>
       </c>
       <c r="H51" s="0">
-        <v>0.33024329869238672</v>
+        <v>0.70789248219443579</v>
       </c>
       <c r="I51" s="0"/>
       <c r="J51" s="0">
@@ -2516,33 +2592,33 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B52" s="0">
         <v>3</v>
       </c>
       <c r="C52" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D52" s="0">
-        <v>0.15000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
       </c>
       <c r="F52" s="0">
-        <v>0.22011743769702294</v>
+        <v>0.85629525641458248</v>
       </c>
       <c r="G52" s="0">
-        <v>0</v>
+        <v>0.305716556505715</v>
       </c>
       <c r="H52" s="0">
-        <v>0.2843907354316545</v>
+        <v>0.70816913719055663</v>
       </c>
       <c r="I52" s="0"/>
       <c r="J52" s="0">
@@ -2552,33 +2628,33 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B53" s="0">
         <v>3</v>
       </c>
       <c r="C53" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D53" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>0.19295026117574698</v>
+        <v>0.4699267538935345</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>0.25399146354280666</v>
+        <v>0.51000259365775991</v>
       </c>
       <c r="I53" s="0"/>
       <c r="J53" s="0">
@@ -2593,28 +2669,28 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B54" s="0">
         <v>3</v>
       </c>
       <c r="C54" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D54" s="0">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>0.19175276394575494</v>
+        <v>0.38590163916473419</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>0.25262266865368616</v>
+        <v>0.44429950890944647</v>
       </c>
       <c r="I54" s="0"/>
       <c r="J54" s="0">
@@ -2629,28 +2705,28 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B55" s="0">
         <v>3</v>
       </c>
       <c r="C55" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D55" s="0">
-        <v>0.29999999999999999</v>
+        <v>3</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0.19571583308601648</v>
+        <v>0.45467217060251003</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0.25714327075598159</v>
+        <v>0.49877970193865617</v>
       </c>
       <c r="I55" s="0"/>
       <c r="J55" s="0">
@@ -2665,28 +2741,28 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B56" s="0">
         <v>3</v>
       </c>
       <c r="C56" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D56" s="0">
-        <v>0.34999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>0.19742219055589025</v>
+        <v>0.36124015029269069</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>0.25908142270940399</v>
+        <v>0.42315073759347116</v>
       </c>
       <c r="I56" s="0"/>
       <c r="J56" s="0">
@@ -2701,28 +2777,28 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B57" s="0">
         <v>3</v>
       </c>
       <c r="C57" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D57" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>0.19726618695767184</v>
+        <v>0.82430018358823021</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
       </c>
       <c r="H57" s="0">
-        <v>0.2589044334805336</v>
+        <v>0.69700145750261466</v>
       </c>
       <c r="I57" s="0"/>
       <c r="J57" s="0">
@@ -2737,28 +2813,28 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B58" s="0">
         <v>3</v>
       </c>
       <c r="C58" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D58" s="0">
-        <v>0.44999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E58" s="0">
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0.19547650649326848</v>
+        <v>0.82460825709076802</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>0.25687103650299009</v>
+        <v>0.69711263665057766</v>
       </c>
       <c r="I58" s="0"/>
       <c r="J58" s="0">
@@ -2773,28 +2849,28 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B59" s="0">
         <v>3</v>
       </c>
       <c r="C59" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D59" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
       </c>
       <c r="F59" s="0">
-        <v>0.19250781374873296</v>
+        <v>0.75058895944767334</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>0.25348601147001737</v>
+        <v>0.66821706556102212</v>
       </c>
       <c r="I59" s="0"/>
       <c r="J59" s="0">
@@ -2809,28 +2885,28 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B60" s="0">
         <v>3</v>
       </c>
       <c r="C60" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D60" s="0">
-        <v>0.54999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
       </c>
       <c r="F60" s="0">
-        <v>0.18908266607057758</v>
+        <v>0.33654569910730542</v>
       </c>
       <c r="G60" s="0">
         <v>0</v>
       </c>
       <c r="H60" s="0">
-        <v>0.24956177740235438</v>
+        <v>0.40108508559122635</v>
       </c>
       <c r="I60" s="0"/>
       <c r="J60" s="0">
@@ -2845,28 +2921,28 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B61" s="0">
         <v>3</v>
       </c>
       <c r="C61" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D61" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>0.1857451255674363</v>
+        <v>0.33790561958406518</v>
       </c>
       <c r="G61" s="0">
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>0.24571854651010705</v>
+        <v>0.40232375509031065</v>
       </c>
       <c r="I61" s="0"/>
       <c r="J61" s="0">
@@ -2881,28 +2957,28 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B62" s="0">
         <v>3</v>
       </c>
       <c r="C62" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D62" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
       </c>
       <c r="F62" s="0">
-        <v>0.12187340740192126</v>
+        <v>0.86732362451784972</v>
       </c>
       <c r="G62" s="0">
-        <v>0</v>
+        <v>0.2558735416493505</v>
       </c>
       <c r="H62" s="0">
-        <v>0.16840953398379799</v>
+        <v>0.71184627473363826</v>
       </c>
       <c r="I62" s="0"/>
       <c r="J62" s="0">
@@ -2912,69 +2988,69 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B63" s="0">
         <v>3</v>
       </c>
       <c r="C63" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D63" s="0">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>0.13952794384914075</v>
+        <v>1</v>
       </c>
       <c r="G63" s="0">
-        <v>0</v>
+        <v>0.0068840354658641929</v>
       </c>
       <c r="H63" s="0">
-        <v>0.19050295280511262</v>
+        <v>0.75</v>
       </c>
       <c r="I63" s="0"/>
       <c r="J63" s="0">
         <v>-1</v>
       </c>
       <c r="K63" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B64" s="0">
         <v>3</v>
       </c>
       <c r="C64" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D64" s="0">
-        <v>0.15000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>0.15560154520155259</v>
+        <v>0.7660903441255732</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0.21013232689607</v>
+        <v>0.67464463698351762</v>
       </c>
       <c r="I64" s="0"/>
       <c r="J64" s="0">
@@ -2989,28 +3065,28 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B65" s="0">
         <v>3</v>
       </c>
       <c r="C65" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D65" s="0">
-        <v>0.20000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0.16801520252402974</v>
+        <v>0.68773112611195597</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
       </c>
       <c r="H65" s="0">
-        <v>0.22497942534300405</v>
+        <v>0.63994234026188312</v>
       </c>
       <c r="I65" s="0"/>
       <c r="J65" s="0">
@@ -3025,28 +3101,28 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B66" s="0">
         <v>3</v>
       </c>
       <c r="C66" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D66" s="0">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>0.17756920484366587</v>
+        <v>0.6980276292955202</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
       </c>
       <c r="H66" s="0">
-        <v>0.23622271052692612</v>
+        <v>0.64482606691046074</v>
       </c>
       <c r="I66" s="0"/>
       <c r="J66" s="0">
@@ -3061,28 +3137,28 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B67" s="0">
         <v>3</v>
       </c>
       <c r="C67" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D67" s="0">
-        <v>0.29999999999999999</v>
+        <v>3</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0.18442083956300831</v>
+        <v>0.71413269112448785</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
       </c>
       <c r="H67" s="0">
-        <v>0.24418829969682426</v>
+        <v>0.65226286563650071</v>
       </c>
       <c r="I67" s="0"/>
       <c r="J67" s="0">
@@ -3097,28 +3173,28 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B68" s="0">
         <v>3</v>
       </c>
       <c r="C68" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D68" s="0">
-        <v>0.34999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>0.18885685698436344</v>
+        <v>0.34938347706570649</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
       </c>
       <c r="H68" s="0">
-        <v>0.24930235829150005</v>
+        <v>0.41266860822525203</v>
       </c>
       <c r="I68" s="0"/>
       <c r="J68" s="0">
@@ -3133,28 +3209,28 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B69" s="0">
         <v>3</v>
       </c>
       <c r="C69" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D69" s="0">
-        <v>0.39999999999999997</v>
+        <v>4</v>
       </c>
       <c r="E69" s="0">
         <v>0</v>
       </c>
       <c r="F69" s="0">
-        <v>0.1911942133278077</v>
+        <v>0.34779054909279655</v>
       </c>
       <c r="G69" s="0">
         <v>0</v>
       </c>
       <c r="H69" s="0">
-        <v>0.25198337975903295</v>
+        <v>0.41124459304161631</v>
       </c>
       <c r="I69" s="0"/>
       <c r="J69" s="0">
@@ -3169,28 +3245,28 @@
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B70" s="0">
         <v>3</v>
       </c>
       <c r="C70" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D70" s="0">
-        <v>0.44999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E70" s="0">
         <v>0</v>
       </c>
       <c r="F70" s="0">
-        <v>0.19173774122543971</v>
+        <v>0.34531430398141794</v>
       </c>
       <c r="G70" s="0">
         <v>0</v>
       </c>
       <c r="H70" s="0">
-        <v>0.25260548139708905</v>
+        <v>0.40902347678039369</v>
       </c>
       <c r="I70" s="0"/>
       <c r="J70" s="0">
@@ -3205,28 +3281,28 @@
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B71" s="0">
         <v>3</v>
       </c>
       <c r="C71" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D71" s="0">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E71" s="0">
         <v>0</v>
       </c>
       <c r="F71" s="0">
-        <v>0.19098268517107375</v>
+        <v>0.34346537294625185</v>
       </c>
       <c r="G71" s="0">
         <v>0</v>
       </c>
       <c r="H71" s="0">
-        <v>0.25174113576769713</v>
+        <v>0.40735911749092346</v>
       </c>
       <c r="I71" s="0"/>
       <c r="J71" s="0">
@@ -3241,28 +3317,28 @@
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B72" s="0">
         <v>3</v>
       </c>
       <c r="C72" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D72" s="0">
-        <v>0.54999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="E72" s="0">
         <v>0</v>
       </c>
       <c r="F72" s="0">
-        <v>0.18945713923956453</v>
+        <v>0.84528586516451321</v>
       </c>
       <c r="G72" s="0">
         <v>0</v>
       </c>
       <c r="H72" s="0">
-        <v>0.24999179524986054</v>
+        <v>0.70441152310060706</v>
       </c>
       <c r="I72" s="0"/>
       <c r="J72" s="0">
@@ -3277,28 +3353,28 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.59999999999999998</v>
+        <v>10</v>
       </c>
       <c r="B73" s="0">
         <v>3</v>
       </c>
       <c r="C73" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D73" s="0">
-        <v>0.59999999999999998</v>
+        <v>6</v>
       </c>
       <c r="E73" s="0">
         <v>0</v>
       </c>
       <c r="F73" s="0">
-        <v>0.18778951659713425</v>
+        <v>0.8474739689959585</v>
       </c>
       <c r="G73" s="0">
         <v>0</v>
       </c>
       <c r="H73" s="0">
-        <v>0.24807496710230159</v>
+        <v>0.70516534606911851</v>
       </c>
       <c r="I73" s="0"/>
       <c r="J73" s="0">
